--- a/Jupyter/ByClusters/Regression/Figures/ESSA_r_squares_by_rwys_clusters.xlsx
+++ b/Jupyter/ByClusters/Regression/Figures/ESSA_r_squares_by_rwys_clusters.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Python3\FlightEfficiencyJournal\Jupyter\ByClusters\Regression\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9AE8A9-0B6A-4B60-B01D-B8E3ACF7764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA44B4FC-3B46-4397-BB86-7A7652E6A1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{606BFE90-B7A3-4BD1-99A4-3234C0855B51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,17 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
   <si>
     <t>Additional Distance (%) vs TIF</t>
   </si>
   <si>
-    <t>Additional Distance (NM) vs TIF</t>
-  </si>
-  <si>
-    <t>Time on Levels (min) vs WIF</t>
-  </si>
-  <si>
     <t>Additional Fuel (%) vs TIF</t>
   </si>
   <si>
@@ -104,14 +99,20 @@
     <t>19L</t>
   </si>
   <si>
-    <t>all runways</t>
+    <t>Time on Levels (%) vs TIF</t>
+  </si>
+  <si>
+    <t>Additional Distance (%) vs WIF</t>
+  </si>
+  <si>
+    <t>Number of flights by clusters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +123,12 @@
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -195,8 +202,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,455 +518,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67B7FEA-2E06-4D7B-B02D-AF2664993FCB}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" customWidth="1"/>
-    <col min="9" max="9" width="4.08984375" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" customWidth="1"/>
-    <col min="17" max="17" width="3.26953125" customWidth="1"/>
-    <col min="18" max="18" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="3.90625" customWidth="1"/>
+    <col min="10" max="10" width="4.08984375" customWidth="1"/>
+    <col min="16" max="16" width="4.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.08984375" customWidth="1"/>
+    <col min="18" max="18" width="20.36328125" customWidth="1"/>
     <col min="19" max="19" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.04</v>
+        <v>3961</v>
       </c>
       <c r="C3" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.87</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="R3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2885</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2687</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="Q3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0.75</v>
+        <v>3108</v>
       </c>
       <c r="C4" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.48</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0.38</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P4" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="R4" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1458</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>9053</v>
       </c>
       <c r="C5" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.79</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.84</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.94</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="P5" s="9">
-        <v>0.43</v>
-      </c>
-      <c r="R5" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D5" s="11">
+        <v>7266</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.6</v>
+        <v>2670</v>
       </c>
       <c r="C6" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.78</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+        <v>12410</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3378</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0.82</v>
+        <v>1910</v>
       </c>
       <c r="C7" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="M7" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+        <v>3950</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3725</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.01</v>
+        <v>2799</v>
       </c>
       <c r="C8" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.79</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0.41</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+        <v>3506</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2625</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -981,9 +787,6 @@
       <c r="G12" s="7">
         <v>0.91</v>
       </c>
-      <c r="H12" s="7">
-        <v>0.89</v>
-      </c>
       <c r="I12">
         <v>1</v>
       </c>
@@ -1005,11 +808,8 @@
       <c r="O12" s="9">
         <v>0.32</v>
       </c>
-      <c r="P12" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1031,9 +831,6 @@
       <c r="G13" s="4">
         <v>0.73</v>
       </c>
-      <c r="H13" s="7">
-        <v>0.8</v>
-      </c>
       <c r="I13">
         <v>2</v>
       </c>
@@ -1055,11 +852,8 @@
       <c r="O13" s="2">
         <v>0.1</v>
       </c>
-      <c r="P13" s="9">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1081,9 +875,6 @@
       <c r="G14" s="7">
         <v>0.84</v>
       </c>
-      <c r="H14" s="7">
-        <v>0.93</v>
-      </c>
       <c r="I14">
         <v>3</v>
       </c>
@@ -1105,11 +896,8 @@
       <c r="O14" s="4">
         <v>0.52</v>
       </c>
-      <c r="P14" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1131,9 +919,6 @@
       <c r="G15" s="7">
         <v>0.78</v>
       </c>
-      <c r="H15" s="4">
-        <v>0.68</v>
-      </c>
       <c r="I15">
         <v>4</v>
       </c>
@@ -1155,11 +940,8 @@
       <c r="O15" s="9">
         <v>0.3</v>
       </c>
-      <c r="P15" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1181,9 +963,6 @@
       <c r="G16" s="2">
         <v>0.2</v>
       </c>
-      <c r="H16" s="7">
-        <v>0.8</v>
-      </c>
       <c r="I16">
         <v>5</v>
       </c>
@@ -1205,11 +984,8 @@
       <c r="O16" s="9">
         <v>0.22</v>
       </c>
-      <c r="P16" s="4">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1231,9 +1007,6 @@
       <c r="G17" s="7">
         <v>0.89</v>
       </c>
-      <c r="H17" s="7">
-        <v>0.88</v>
-      </c>
       <c r="I17">
         <v>6</v>
       </c>
@@ -1254,9 +1027,6 @@
       </c>
       <c r="O17" s="9">
         <v>0.37</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -1267,82 +1037,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62C36E6-12F3-45F2-A6CF-1E4EA01E7986}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" customWidth="1"/>
+    <col min="8" max="8" width="4.36328125" customWidth="1"/>
     <col min="9" max="9" width="3.90625" customWidth="1"/>
-    <col min="16" max="16" width="10.36328125" customWidth="1"/>
-    <col min="17" max="17" width="2.36328125" customWidth="1"/>
-    <col min="18" max="18" width="12.6328125" customWidth="1"/>
-    <col min="19" max="19" width="19.26953125" customWidth="1"/>
+    <col min="16" max="16" width="5.1796875" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" customWidth="1"/>
+    <col min="18" max="18" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>22</v>
+      <c r="Q2" t="s">
+        <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1352,7 +1115,7 @@
       <c r="C3" s="2">
         <v>0.06</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>0.76</v>
       </c>
       <c r="E3" s="2">
@@ -1364,9 +1127,6 @@
       <c r="G3" s="2">
         <v>0.15</v>
       </c>
-      <c r="H3" s="4">
-        <v>0.7</v>
-      </c>
       <c r="I3">
         <v>1</v>
       </c>
@@ -1388,17 +1148,14 @@
       <c r="O3" s="2">
         <v>0.09</v>
       </c>
-      <c r="P3" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1408,7 +1165,7 @@
       <c r="C4" s="2">
         <v>0.03</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>0.53</v>
       </c>
       <c r="E4" s="2">
@@ -1420,9 +1177,6 @@
       <c r="G4" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H4" s="7">
-        <v>0.8</v>
-      </c>
       <c r="I4">
         <v>2</v>
       </c>
@@ -1444,17 +1198,14 @@
       <c r="O4" s="2">
         <v>0.2</v>
       </c>
-      <c r="P4" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1464,7 +1215,7 @@
       <c r="C5" s="2">
         <v>0.03</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>0.84</v>
       </c>
       <c r="E5" s="2">
@@ -1476,9 +1227,6 @@
       <c r="G5" s="2">
         <v>0.15</v>
       </c>
-      <c r="H5" s="7">
-        <v>0.78</v>
-      </c>
       <c r="I5">
         <v>3</v>
       </c>
@@ -1488,7 +1236,7 @@
       <c r="K5" s="2">
         <v>0.33</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <v>0.56000000000000005</v>
       </c>
       <c r="M5" s="2">
@@ -1500,17 +1248,14 @@
       <c r="O5" s="2">
         <v>0.19</v>
       </c>
-      <c r="P5" s="9">
-        <v>0.38</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1520,20 +1265,17 @@
       <c r="C6" s="2">
         <v>0.37</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="9">
         <v>0.3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <v>0.75</v>
       </c>
       <c r="F6" s="2">
         <v>0.3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>0.63</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.06</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -1556,11 +1298,8 @@
       <c r="O6" s="2">
         <v>0.37</v>
       </c>
-      <c r="P6" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1570,7 +1309,7 @@
       <c r="C7" s="2">
         <v>0.35</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>0.65</v>
       </c>
       <c r="E7" s="2">
@@ -1579,11 +1318,8 @@
       <c r="F7" s="2">
         <v>0.24</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>0.44</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.78</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -1606,11 +1342,8 @@
       <c r="O7" s="2">
         <v>0.1</v>
       </c>
-      <c r="P7" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1620,7 +1353,7 @@
       <c r="C8" s="2">
         <v>0.43</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>0.67</v>
       </c>
       <c r="E8" s="2">
@@ -1632,9 +1365,6 @@
       <c r="G8" s="2">
         <v>0.7</v>
       </c>
-      <c r="H8" s="7">
-        <v>0.79</v>
-      </c>
       <c r="I8">
         <v>6</v>
       </c>
@@ -1656,59 +1386,54 @@
       <c r="O8" s="2">
         <v>0.01</v>
       </c>
-      <c r="P8" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1718,7 +1443,7 @@
       <c r="C12" s="2">
         <v>0.02</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="7">
         <v>0.84</v>
       </c>
       <c r="E12" s="2">
@@ -1727,11 +1452,8 @@
       <c r="F12" s="2">
         <v>0.38</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>0.64</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0.86</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1742,10 +1464,10 @@
       <c r="K12" s="2">
         <v>0.09</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="9">
         <v>0.4</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="9">
         <v>0.37</v>
       </c>
       <c r="N12" s="2">
@@ -1754,11 +1476,8 @@
       <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1768,7 +1487,7 @@
       <c r="C13" s="2">
         <v>0.04</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="9">
         <v>0.49</v>
       </c>
       <c r="E13" s="2">
@@ -1777,11 +1496,8 @@
       <c r="F13" s="2">
         <v>0.2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="7">
         <v>0.88</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.84</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1804,11 +1520,8 @@
       <c r="O13" s="2">
         <v>0.24</v>
       </c>
-      <c r="P13" s="2">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1818,7 +1531,7 @@
       <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="7">
         <v>0.9</v>
       </c>
       <c r="E14" s="2">
@@ -1830,9 +1543,6 @@
       <c r="G14" s="2">
         <v>0.01</v>
       </c>
-      <c r="H14" s="7">
-        <v>0.92</v>
-      </c>
       <c r="I14">
         <v>3</v>
       </c>
@@ -1842,10 +1552,10 @@
       <c r="K14" s="2">
         <v>0.64</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="4">
         <v>0.71</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="9">
         <v>0.46</v>
       </c>
       <c r="N14" s="2">
@@ -1854,11 +1564,8 @@
       <c r="O14" s="2">
         <v>0.18</v>
       </c>
-      <c r="P14" s="4">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1868,20 +1575,17 @@
       <c r="C15" s="2">
         <v>0.34</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="9">
         <v>0.32</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>0.73</v>
       </c>
       <c r="F15" s="2">
         <v>0.45</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <v>0.55000000000000004</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.52</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -1892,23 +1596,20 @@
       <c r="K15" s="2">
         <v>0.08</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="9">
         <v>0.36</v>
       </c>
       <c r="N15" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="9">
         <v>0.48</v>
       </c>
-      <c r="P15" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1918,7 +1619,7 @@
       <c r="C16" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="7">
         <v>0.82</v>
       </c>
       <c r="E16" s="2">
@@ -1927,11 +1628,8 @@
       <c r="F16" s="2">
         <v>0.32</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>0.69</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0.83</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -1954,12 +1652,9 @@
       <c r="O16" s="2">
         <v>0.03</v>
       </c>
-      <c r="P16" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1969,20 +1664,17 @@
       <c r="C17" s="2">
         <v>0.2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="7">
         <v>0.82</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="9">
         <v>0.26</v>
       </c>
       <c r="F17" s="2">
         <v>0.77</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="4">
         <v>0.68</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0.85</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -1993,7 +1685,7 @@
       <c r="K17" s="2">
         <v>0.87</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="4">
         <v>0.61</v>
       </c>
       <c r="M17" s="2">
@@ -2004,13 +1696,472 @@
       </c>
       <c r="O17" s="2">
         <v>0.01</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C401E7F3-9CCD-4580-A7D4-5FF07CF00D08}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3961</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2885</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2687</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3108</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5821</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1458</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9053</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3277</v>
+      </c>
+      <c r="D5" s="11">
+        <v>7266</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2670</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12410</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3378</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1910</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3950</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3725</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2799</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3506</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2625</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Jupyter/ByClusters/Regression/Figures/ESSA_r_squares_by_rwys_clusters.xlsx
+++ b/Jupyter/ByClusters/Regression/Figures/ESSA_r_squares_by_rwys_clusters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Python3\FlightEfficiencyJournal\Jupyter\ByClusters\Regression\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA44B4FC-3B46-4397-BB86-7A7652E6A1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB1813A-42A1-4968-9C31-8A1C537EAEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{606BFE90-B7A3-4BD1-99A4-3234C0855B51}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{606BFE90-B7A3-4BD1-99A4-3234C0855B51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <t>Additional Distance (%) vs WIF</t>
   </si>
   <si>
-    <t>Number of flights by clusters</t>
+    <t>Number of flights by clusters (for the whole 2019)</t>
   </si>
 </sst>
 </file>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67B7FEA-2E06-4D7B-B02D-AF2664993FCB}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,316 +716,328 @@
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D9" s="2"/>
+      <c r="B9" s="2">
+        <v>23501</v>
+      </c>
+      <c r="C9" s="2">
+        <v>31849</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21139</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.87</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0.32</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>0.75</v>
+        <v>0.04</v>
       </c>
       <c r="C13" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.48</v>
+        <v>0.63</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.74</v>
       </c>
       <c r="F13" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.73</v>
+        <v>0.06</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.91</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="K13" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="O13" s="9">
         <v>0.32</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0.36</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C14" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.79</v>
+        <v>0.12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.48</v>
       </c>
       <c r="F14" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.84</v>
+        <v>0.94</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.73</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="2">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="K14" s="2">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="L14" s="2">
         <v>0.24</v>
       </c>
       <c r="M14" s="9">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="N14" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.52</v>
+        <v>0.42</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.65</v>
+        <v>0.92</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.91</v>
       </c>
       <c r="E15" s="7">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="F15" s="2">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="G15" s="7">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="2">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="K15" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.61</v>
+        <v>0.37</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.24</v>
       </c>
       <c r="M15" s="9">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="N15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0.3</v>
+        <v>0.59</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.52</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
       <c r="C16" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.95</v>
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.65</v>
       </c>
       <c r="E16" s="7">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F16" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.2</v>
+        <v>0.92</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.78</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="2">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="K16" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.06</v>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0.36</v>
       </c>
       <c r="N16" s="2">
         <v>0.5</v>
       </c>
       <c r="O16" s="9">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>6</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>0.01</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>0.43</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="4">
         <v>0.68</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E18" s="7">
         <v>0.79</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>0.9</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G18" s="7">
         <v>0.89</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>6</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J18" s="2">
         <v>0.1</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K18" s="2">
         <v>0.04</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L18" s="9">
         <v>0.27</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M18" s="2">
         <v>0.02</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N18" s="2">
         <v>0.64</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O18" s="9">
         <v>0.37</v>
       </c>
     </row>
@@ -1706,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C401E7F3-9CCD-4580-A7D4-5FF07CF00D08}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1849,315 +1861,326 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D9" s="2"/>
+      <c r="B9" s="2">
+        <v>23501</v>
+      </c>
+      <c r="C9" s="2">
+        <v>31849</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21139</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0.08</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.87</v>
       </c>
       <c r="C13" s="2">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="D13" s="2">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="E13" s="2">
-        <v>0.54</v>
+        <v>0.03</v>
       </c>
       <c r="F13" s="2">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
       <c r="G13" s="2">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="K13" s="2">
-        <v>0.09</v>
+        <v>0.72</v>
       </c>
       <c r="L13" s="2">
-        <v>0.03</v>
+        <v>0.9</v>
       </c>
       <c r="M13" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="2">
         <v>0.08</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>0.78</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="D14" s="2">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="2">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="F14" s="2">
-        <v>0.76</v>
+        <v>0.31</v>
       </c>
       <c r="G14" s="2">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="L14" s="2">
         <v>0.03</v>
       </c>
-      <c r="K14" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.56999999999999995</v>
-      </c>
       <c r="M14" s="2">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="N14" s="2">
-        <v>0.9</v>
+        <v>0.12</v>
       </c>
       <c r="O14" s="2">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="C15" s="2">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="D15" s="2">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
       <c r="E15" s="2">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="F15" s="2">
-        <v>0.64</v>
+        <v>0.76</v>
       </c>
       <c r="G15" s="2">
-        <v>0.08</v>
+        <v>0.7</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="2">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="K15" s="2">
-        <v>0.02</v>
+        <v>0.34</v>
       </c>
       <c r="L15" s="2">
-        <v>0.17</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M15" s="2">
-        <v>0.71</v>
+        <v>0.42</v>
       </c>
       <c r="N15" s="2">
-        <v>0.49</v>
+        <v>0.9</v>
       </c>
       <c r="O15" s="2">
-        <v>0.85</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="D16" s="2">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="E16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2">
         <v>0.01</v>
       </c>
-      <c r="F16" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.44</v>
-      </c>
       <c r="K16" s="2">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="L16" s="2">
-        <v>0.53</v>
+        <v>0.17</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="N16" s="2">
-        <v>0.19</v>
+        <v>0.49</v>
       </c>
       <c r="O16" s="2">
-        <v>0.02</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="C17" s="2">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="D17" s="2">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="E17" s="2">
-        <v>0.79</v>
+        <v>0.01</v>
       </c>
       <c r="F17" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2">
         <v>0.44</v>
       </c>
-      <c r="G17" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.01</v>
-      </c>
       <c r="K17" s="2">
-        <v>0.77</v>
+        <v>0.1</v>
       </c>
       <c r="L17" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
         <v>0.47</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O18" s="2">
         <v>0.2</v>
       </c>
     </row>
